--- a/simple-xlsx/tests/read-tests/test12/test12.xlsx
+++ b/simple-xlsx/tests/read-tests/test12/test12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="监管账户信息" sheetId="1" state="visible" r:id="rId2"/>
@@ -78,7 +78,8 @@
     <t xml:space="preserve">仁秀听</t>
   </si>
   <si>
-    <t xml:space="preserve">ep3Q2H7kd7PwsUPTaEg2Zrbvcx3eC4sZ</t>
+    <t xml:space="preserve">ep3Q2H7kd7PwsUPTaEg2Zrbvcx3eC4sZ
+Chenxiao</t>
   </si>
   <si>
     <t xml:space="preserve">定期帐号</t>
@@ -101,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -130,12 +131,6 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,8 +192,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -220,14 +215,14 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
@@ -330,16 +325,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>

--- a/simple-xlsx/tests/read-tests/test12/test12.xlsx
+++ b/simple-xlsx/tests/read-tests/test12/test12.xlsx
@@ -79,7 +79,7 @@
   </si>
   <si>
     <t xml:space="preserve">ep3Q2H7kd7PwsUPTaEg2Zrbvcx3eC4sZ
-Chenxiao</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">定期帐号</t>
@@ -175,8 +175,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,27 +220,29 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -245,10 +251,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -256,54 +262,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>123456</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>123456</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>13888916509</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>456789</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>456789</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>13888321651</v>
       </c>
     </row>
@@ -326,7 +332,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H:H A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -335,8 +341,8 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -359,7 +365,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="H:H D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -368,16 +374,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
